--- a/temp.xlsx
+++ b/temp.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPS-US</t>
+          <t>ROST-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4503</v>
+        <v>1004</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROST-US</t>
+          <t>WMT-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>476</v>
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAP-CA</t>
+          <t>GIS-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>375</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIS-US</t>
+          <t>CAG-US</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PBH-CA</t>
+          <t>PM-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WBA-US</t>
+          <t>FTI-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>359</v>
+        <v>4937</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MPC-US</t>
+          <t>GL-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>688</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PSX-US</t>
+          <t>MRK-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>857</v>
+        <v>640</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAG-CA</t>
+          <t>ABBV-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47368</v>
+        <v>111</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MRK-US</t>
+          <t>INCY-US</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UHS-US</t>
+          <t>ABC-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>460</v>
+        <v>138</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DE-US</t>
+          <t>IEX-US</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IT-US</t>
+          <t>DE-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IBM-US</t>
+          <t>LDOS-US</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AGI-CA</t>
+          <t>SHOP-CA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11784</v>
+        <v>74</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAC-US</t>
+          <t>JNPR-US</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5525</v>
+        <v>232</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T-CA</t>
+          <t>AGI-CA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2121</v>
+        <v>4256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ATO-US</t>
+          <t>APD-US</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,9 +808,89 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>761</v>
+        <v>185</v>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EQIX-US</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IRM-US</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TMUS-US</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>241</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FE-US</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1319</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
@@ -827,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +918,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>ticker</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -855,11 +935,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4503</v>
+        <v>1004</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -870,11 +950,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476</v>
+        <v>28</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -885,26 +965,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>375</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -915,26 +995,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PBH</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359</v>
+        <v>4937</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -945,11 +1025,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>295</v>
+        <v>688</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -960,11 +1040,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>857</v>
+        <v>640</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -975,26 +1055,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47368</v>
+        <v>111</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1005,11 +1085,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460</v>
+        <v>138</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1020,11 +1100,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1035,11 +1115,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1050,11 +1130,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>LDOS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1065,11 +1145,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11784</v>
+        <v>74</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1080,11 +1160,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>JNPR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5525</v>
+        <v>232</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1095,11 +1175,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>AGI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2121</v>
+        <v>4256</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1110,13 +1190,73 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>APD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>761</v>
+        <v>185</v>
       </c>
       <c r="C19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>241</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>US</t>
         </is>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ROST-US</t>
+          <t>PVH-US</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1004</v>
+        <v>1354</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WMT-US</t>
+          <t>SJM-US</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GIS-US</t>
+          <t>PG-US</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAG-US</t>
+          <t>SCL-CA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PM-US</t>
+          <t>AIG-US</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>261</v>
+        <v>1297</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FTI-US</t>
+          <t>CI-US</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4937</v>
+        <v>157</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GL-US</t>
+          <t>ZBH-US</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>688</v>
+        <v>551</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MRK-US</t>
+          <t>DE-US</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>640</v>
+        <v>170</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABBV-US</t>
+          <t>NVDA-US</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>111</v>
+        <v>380</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INCY-US</t>
+          <t>ERO-CA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>499</v>
+        <v>6747</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABC-US</t>
+          <t>HCP-US</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>1780</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IEX-US</t>
+          <t>T-CA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98</v>
+        <v>1704</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DE-US</t>
+          <t>FE-US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,189 +708,9 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134</v>
+        <v>978</v>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LDOS-US</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>482</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SHOP-CA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>74</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>JNPR-US</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>232</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AGI-CA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>4256</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>APD-US</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>185</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EQIX-US</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>IRM-US</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1085</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TMUS-US</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>241</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>FE-US</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1319</v>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t>MKT</t>
         </is>
@@ -907,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,11 +755,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>PVH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004</v>
+        <v>1354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -950,11 +770,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -965,11 +785,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -980,26 +800,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261</v>
+        <v>1297</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1010,11 +830,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FTI</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4937</v>
+        <v>157</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1025,11 +845,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>ZBH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>688</v>
+        <v>551</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1040,11 +860,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640</v>
+        <v>170</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1055,11 +875,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111</v>
+        <v>380</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1070,26 +890,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>ERO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>499</v>
+        <v>6747</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>HCP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138</v>
+        <v>1780</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1100,163 +920,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>1704</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134</v>
+        <v>978</v>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LDOS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>482</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SHOP</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>74</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>JNPR</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>232</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AGI</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4256</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>APD</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>185</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EQIX</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>IRM</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1085</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>241</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>FE</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1319</v>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>US</t>
         </is>
